--- a/ElasticNet/results/shap_summary_sorted_FTD.xlsx
+++ b/ElasticNet/results/shap_summary_sorted_FTD.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B73"/>
+  <dimension ref="A1:B61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,361 +448,361 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Low_subj_spec_RPD_HPC_right</t>
+          <t>Alpha2_canon_RPD_CING_right</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>11.20862044789371</v>
+        <v>179.9076672386255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Low_subj_spec_RPD_HPC_left</t>
+          <t>Low_subj_spec_RPD_OCC_left</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7.561223508590747</v>
+        <v>126.8686382366352</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>IAF_INS_right</t>
+          <t>Low_subj_spec_RPD_PARIET_left</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7.542666374950985</v>
+        <v>112.4891643646409</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_PARIET_left</t>
+          <t>High_subj_spec_EPP_OCC_left</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7.453247315701164</v>
+        <v>100.6622399081241</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Alpha2_canon_EPP_PARIET_left</t>
+          <t>Alpha2_canon_RPD_CING_left</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.452624463420829</v>
+        <v>91.25844582049287</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_OCC_right</t>
+          <t>High_subj_spec_RPD_OCC_left</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>7.214876290025298</v>
+        <v>70.39458940839802</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TF_INS_left</t>
+          <t>Alpha2_canon_EPP_PARIET_left</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.102471190821491</v>
+        <v>66.4443905137752</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_PARIET_right</t>
+          <t>Low_subj_spec_RPD_HPC_right</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6.996663766258732</v>
+        <v>60.25267269916195</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Alpha2_canon_EPP_PARIET_right</t>
+          <t>Low_subj_spec_EPP_OCC_right</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6.996048266291877</v>
+        <v>59.65762869886318</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_HPC_left</t>
+          <t>Alpha2_canon_RPD_PARIET_left</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>6.976507009108333</v>
+        <v>51.59335759961667</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_HPC_right</t>
+          <t>Low_subj_spec_RPD_HPC_left</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.892926664262649</v>
+        <v>49.30054604812424</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_HPC_right</t>
+          <t>High_subj_spec_RPD_CING_left</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.891796266597702</v>
+        <v>48.44595742108824</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Alpha2_canon_EPP_OCC_right</t>
+          <t>Low_subj_spec_RPD_CING_left</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.605953066979935</v>
+        <v>47.75863632231134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_OCC_right</t>
+          <t>Alpha2_canon_EPP_OCC_left</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.605690310782807</v>
+        <v>46.86365158731929</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_CING_left</t>
+          <t>High_subj_spec_EPP_CING_left</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.344134593623978</v>
+        <v>37.81550400629516</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>TF_IFG_right</t>
+          <t>IAF_ORB_left</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.314404764984091</v>
+        <v>35.64564759924831</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_HPC_right</t>
+          <t>Alpha2_canon_RPD_OCC_left</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>6.076062138991293</v>
+        <v>33.4353492449054</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Alpha2_canon_EPP_HPC_right</t>
+          <t>Alpha2_canon_EPP_PARIET_right</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.075184483209334</v>
+        <v>32.76427398634963</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TF_HPC_left</t>
+          <t>IAF_OCC_right</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6.068475803755305</v>
+        <v>29.25680434351915</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>IAF_ORB_left</t>
+          <t>Low_subj_spec_RPD_PARIET_right</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6.051045657592433</v>
+        <v>26.91175118155041</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Low_subj_spec_RPD_PARIET_right</t>
+          <t>IAF_INS_left</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5.93777288423582</v>
+        <v>25.34121736862518</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_CING_right</t>
+          <t>Alpha2_canon_RPD_PARIET_right</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5.68325905489854</v>
+        <v>23.72592963839088</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_CING_right</t>
+          <t>TF_IFG_right</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>5.681650708868466</v>
+        <v>23.40833133657375</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>IAF_INS_left</t>
+          <t>High_subj_spec_RPD_HPC_right</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>5.581177273372686</v>
+        <v>22.09999456686207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_HPC_left</t>
+          <t>Alpha2_canon_RPD_OCC_right</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>5.555969946697234</v>
+        <v>18.43795692816058</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_HPC_left</t>
+          <t>Low_subj_spec_EPP_HPC_left</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>5.555250626519491</v>
+        <v>18.36972217800101</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>IAF_HPC_right</t>
+          <t>Alpha2_canon_RPD_HPC_right</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>5.275560133866022</v>
+        <v>18.36196058729024</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_PARIET_right</t>
+          <t>IAF_INS_right</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>4.899640987953198</v>
+        <v>18.19200370044287</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_PARIET_right</t>
+          <t>IAF_ORB_right</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>4.898567875750461</v>
+        <v>17.87999398110549</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_PARIET_right</t>
+          <t>Alpha2_canon_EPP_OCC_right</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4.835131948202946</v>
+        <v>17.55136240474235</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_OCC_left</t>
+          <t>High_subj_spec_EPP_HPC_right</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>4.625152645755958</v>
+        <v>16.86452344691441</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>TF_SFG_right</t>
+          <t>Alpha2_canon_EPP_HPC_right</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>4.554020154971546</v>
+        <v>14.69926192358538</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_CING_right</t>
+          <t>High_subj_spec_EPP_OCC_right</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>4.411090541833898</v>
+        <v>14.53840612108205</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_CING_left</t>
+          <t>IAF_SFG_right</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4.385046276638025</v>
+        <v>13.84642237102518</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_CING_right</t>
+          <t>High_subj_spec_RPD_OCC_right</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3.884302148328381</v>
+        <v>11.52133685113074</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>IAF_HPC_left</t>
+          <t>TF_INS_right</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3.836944538278634</v>
+        <v>10.87030581753279</v>
       </c>
     </row>
     <row r="38">
@@ -812,37 +812,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.773470241796872</v>
+        <v>10.44373902893411</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_OCC_right</t>
+          <t>IAF_HPC_right</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3.162081336768233</v>
+        <v>9.319347392063394</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_OCC_right</t>
+          <t>IAF_IFG_right</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3.16113154363344</v>
+        <v>9.132660207377223</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>TF_SFG_left</t>
+          <t>High_subj_spec_RPD_PARIET_right</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.905621400883041</v>
+        <v>6.957554121804967</v>
       </c>
     </row>
     <row r="42">
@@ -852,317 +852,197 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2.776572603376285</v>
+        <v>6.413560670540462</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_PARIET_left</t>
+          <t>IAF_OCC_left</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>2.775497163029218</v>
+        <v>6.409972096372887</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>TF_ORB_right</t>
+          <t>IAF_HPC_left</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2.681284040033706</v>
+        <v>5.80283094000174</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_HPC_left</t>
+          <t>High_subj_spec_RPD_PARIET_left</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>2.538129415146554</v>
+        <v>5.502018665279865</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Alpha2_canon_EPP_HPC_left</t>
+          <t>High_subj_spec_EPP_HPC_left</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2.537650549539142</v>
+        <v>4.674743373894144</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>IAF_IFG_left</t>
+          <t>High_subj_spec_RPD_HPC_left</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2.492500958524819</v>
+        <v>4.577335672511308</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>IAF_OCC_right</t>
+          <t>High_subj_spec_EPP_PARIET_right</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>2.449651609738265</v>
+        <v>4.568394130015495</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>TF_HPC_right</t>
+          <t>TF_ORB_left</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>2.322902059425704</v>
+        <v>4.397620158605292</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Low_subj_spec_EPP_PARIET_left</t>
+          <t>Low_subj_spec_RPD_OCC_right</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>2.242724702932108</v>
+        <v>4.068663442304951</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>TF_MFG_right</t>
+          <t>Alpha2_canon_EPP_HPC_left</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>2.161678211504488</v>
+        <v>3.526252191610413</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Low_subj_spec_RPD_OCC_right</t>
+          <t>Alpha2_canon_RPD_HPC_left</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>2.12048022265606</v>
+        <v>3.321455291200229</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>IAF_OCC_left</t>
+          <t>TF_HPC_left</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>2.112414859324669</v>
+        <v>2.700258698435487</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>High_subj_spec_EPP_CING_left</t>
+          <t>IAF_MFG_left</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>2.095237613989057</v>
+        <v>2.68900190370899</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>High_subj_spec_RPD_CING_left</t>
+          <t>IAF_IFG_left</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>2.09401501227559</v>
+        <v>2.521470645100028</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Alpha2_canon_EPP_OCC_left</t>
+          <t>TF_ORB_right</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2.093137190668983</v>
+        <v>2.400696718714609</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Alpha2_canon_RPD_OCC_left</t>
+          <t>High_subj_spec_EPP_CING_right</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>2.092825148678741</v>
+        <v>2.047171155576545</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>IAF_SFG_right</t>
+          <t>TF_HPC_right</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>1.900195590637656</v>
+        <v>1.93840777743092</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>TF_ORB_left</t>
+          <t>IAF_SFG_left</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>1.78170739322979</v>
+        <v>1.678893360408228</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>IAF_IFG_right</t>
+          <t>High_subj_spec_RPD_CING_right</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>1.739476990600509</v>
+        <v>1.652518642676408</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>IAF_ORB_right</t>
+          <t>IAF_MFG_right</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>1.475758854419628</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>IAF_SFG_left</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>1.334120383505574</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Low_subj_spec_EPP_HPC_right</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>1.208545834759007</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>TF_MFG_left</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v>0.8381702954616576</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Low_subj_spec_RPD_PARIET_left</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v>0.7313505364417999</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>TF_IFG_left</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v>0.6516814820236613</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>IAF_MFG_left</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v>0.6090573281884453</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Low_subj_spec_RPD_OCC_left</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v>0.5274423852621482</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Low_subj_spec_RPD_CING_left</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v>0.2978932203575089</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>TF_INS_right</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v>0.2285251686398801</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>IAF_MFG_right</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v>0.2069103543551597</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>High_subj_spec_EPP_OCC_left</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v>0.1668796173553446</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>High_subj_spec_RPD_OCC_left</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v>0.166594258472344</v>
+        <v>0.9426240455145978</v>
       </c>
     </row>
   </sheetData>
